--- a/app/zadmin/zi_misc_decompose-2.xlsx
+++ b/app/zadmin/zi_misc_decompose-2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="784">
   <si>
     <t xml:space="preserve">zi</t>
   </si>
@@ -1537,75 +1537,78 @@
     <t xml:space="preserve">2024-01-15 13:39:29</t>
   </si>
   <si>
+    <t xml:space="preserve">肄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-28 15:17:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鹰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亻 隹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-27 23:21:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-27 23:22:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">颖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-28 15:17:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">缘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">纟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">彑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">豕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-16 23:43:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">择</t>
+  </si>
+  <si>
+    <t xml:space="preserve">睪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-26 16:38:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-26 23:09:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">译</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-23 22:59:16</t>
+  </si>
+  <si>
     <t xml:space="preserve">绎</t>
   </si>
   <si>
-    <t xml:space="preserve">纟</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-01-28 11:04:44</t>
   </si>
   <si>
-    <t xml:space="preserve">肄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-28 15:17:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">译</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-23 22:59:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鹰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">亻 隹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-27 23:21:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-27 23:22:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">颖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-28 15:17:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">缘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">彑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">豕</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-16 23:43:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">择</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-26 16:38:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-26 23:09:41</t>
-  </si>
-  <si>
     <t xml:space="preserve">蘸</t>
   </si>
   <si>
@@ -1717,6 +1720,9 @@
     <t xml:space="preserve">里</t>
   </si>
   <si>
+    <t xml:space="preserve">厘</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024-01-27 21:31:25</t>
   </si>
   <si>
@@ -1879,6 +1885,9 @@
     <t xml:space="preserve">练</t>
   </si>
   <si>
+    <t xml:space="preserve">柬 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2024-01-26 22:43:16</t>
   </si>
   <si>
@@ -2240,6 +2249,9 @@
   </si>
   <si>
     <t xml:space="preserve">六</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旁</t>
   </si>
   <si>
     <t xml:space="preserve">2024-01-21 22:29:00</t>
@@ -2373,7 +2385,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2400,6 +2412,16 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2462,7 +2484,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2520,6 +2542,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2636,8 +2666,8 @@
   </sheetPr>
   <dimension ref="A1:U222"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A191" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A191" activeCellId="0" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6680,22 +6710,19 @@
         <v>0</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>11938</v>
-      </c>
-      <c r="F123" s="3" t="s">
+        <v>11944</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P123" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O123" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P123" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="R123" s="1" t="s">
         <v>26</v>
@@ -6706,22 +6733,22 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>12086</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I124" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B124" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" s="1" t="n">
-        <v>11944</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>201</v>
+      <c r="J124" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="P124" s="4" t="s">
         <v>508</v>
@@ -6741,19 +6768,22 @@
         <v>0</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>11966</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>401</v>
+        <v>12108</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O125" s="3" t="s">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="P125" s="4" t="s">
         <v>510</v>
@@ -6773,16 +6803,16 @@
         <v>0</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>12086</v>
+        <v>12114</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="P126" s="4" t="s">
         <v>513</v>
@@ -6802,158 +6832,198 @@
         <v>0</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>12108</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>73</v>
+        <v>12427</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>250</v>
+        <v>516</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="M127" s="3" t="s">
-        <v>252</v>
+        <v>517</v>
       </c>
       <c r="P127" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T127" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="128" s="8" customFormat="true" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B128" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5" t="n">
+        <v>12620</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P128" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="U128" s="5"/>
+    </row>
+    <row r="129" s="8" customFormat="true" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B129" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5" t="n">
+        <v>12622</v>
+      </c>
+      <c r="E129" s="5"/>
+      <c r="F129" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P129" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="U129" s="5"/>
+    </row>
+    <row r="130" s="8" customFormat="true" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B130" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5" t="n">
+        <v>11966</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P130" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S130" s="5"/>
+      <c r="T130" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="U130" s="5"/>
+    </row>
+    <row r="131" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B131" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5" t="n">
+        <v>11938</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="R127" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T127" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" s="1" t="n">
-        <v>12114</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="P128" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="R128" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T128" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" s="1" t="n">
-        <v>12427</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="P129" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="R129" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T129" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" s="1" t="n">
-        <v>12620</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H130" s="3" t="s">
+      <c r="H131" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I130" s="3" t="s">
+      <c r="I131" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O130" s="3" t="s">
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P130" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="R130" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T130" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" s="1" t="n">
-        <v>12622</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O131" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P131" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="R131" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T131" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="P131" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="U131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>0</v>
@@ -6962,16 +7032,16 @@
         <v>12749</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>236</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="R132" s="1" t="s">
         <v>26</v>
@@ -6982,7 +7052,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>0</v>
@@ -6997,10 +7067,10 @@
         <v>111</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P133" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="R133" s="1" t="s">
         <v>26</v>
@@ -7011,7 +7081,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>0</v>
@@ -7023,13 +7093,13 @@
         <v>378</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>222</v>
       </c>
       <c r="P134" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="R134" s="1" t="s">
         <v>26</v>
@@ -7040,7 +7110,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>0</v>
@@ -7055,10 +7125,10 @@
         <v>111</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="R135" s="1" t="s">
         <v>26</v>
@@ -7069,7 +7139,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>0</v>
@@ -7087,7 +7157,7 @@
         <v>365</v>
       </c>
       <c r="P136" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>26</v>
@@ -7098,7 +7168,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>0</v>
@@ -7116,7 +7186,7 @@
         <v>57</v>
       </c>
       <c r="P137" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="R137" s="1" t="s">
         <v>26</v>
@@ -7127,7 +7197,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>1</v>
@@ -7139,7 +7209,7 @@
         <v>137</v>
       </c>
       <c r="P138" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="R138" s="1" t="s">
         <v>26</v>
@@ -7150,7 +7220,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>0</v>
@@ -7162,13 +7232,13 @@
         <v>127</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P139" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="R139" s="1" t="s">
         <v>26</v>
@@ -7179,7 +7249,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>0</v>
@@ -7194,13 +7264,13 @@
         <v>77</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>101</v>
       </c>
       <c r="P140" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R140" s="1" t="s">
         <v>26</v>
@@ -7211,7 +7281,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>0</v>
@@ -7220,19 +7290,19 @@
         <v>201</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>359</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P141" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="R141" s="1" t="s">
         <v>26</v>
@@ -7243,7 +7313,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>0</v>
@@ -7252,16 +7322,16 @@
         <v>2013</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O142" s="3" t="s">
         <v>57</v>
       </c>
       <c r="P142" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R142" s="1" t="s">
         <v>26</v>
@@ -7272,7 +7342,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>0</v>
@@ -7284,13 +7354,13 @@
         <v>127</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>439</v>
       </c>
       <c r="P143" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="R143" s="1" t="s">
         <v>26</v>
@@ -7301,7 +7371,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>0</v>
@@ -7310,16 +7380,19 @@
         <v>2105</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
+      </c>
+      <c r="K144" s="16" t="s">
+        <v>565</v>
       </c>
       <c r="P144" s="4" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="R144" s="1" t="s">
         <v>26</v>
@@ -7330,7 +7403,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>0</v>
@@ -7339,16 +7412,16 @@
         <v>2113</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J145" s="3" t="s">
         <v>439</v>
       </c>
       <c r="P145" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="R145" s="1" t="s">
         <v>26</v>
@@ -7359,7 +7432,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>1</v>
@@ -7380,7 +7453,7 @@
         <v>147</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="R146" s="1" t="s">
         <v>26</v>
@@ -7391,7 +7464,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>0</v>
@@ -7409,7 +7482,7 @@
         <v>23</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="R147" s="1" t="s">
         <v>26</v>
@@ -7420,7 +7493,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>0</v>
@@ -7438,7 +7511,7 @@
         <v>128</v>
       </c>
       <c r="P148" s="4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="R148" s="1" t="s">
         <v>26</v>
@@ -7449,7 +7522,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>0</v>
@@ -7467,7 +7540,7 @@
         <v>395</v>
       </c>
       <c r="P149" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="R149" s="1" t="s">
         <v>26</v>
@@ -7478,7 +7551,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>0</v>
@@ -7496,7 +7569,7 @@
         <v>235</v>
       </c>
       <c r="P150" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="R150" s="1" t="s">
         <v>26</v>
@@ -7507,7 +7580,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>0</v>
@@ -7516,7 +7589,7 @@
         <v>3287</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>72</v>
@@ -7525,7 +7598,7 @@
         <v>73</v>
       </c>
       <c r="P151" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="R151" s="1" t="s">
         <v>26</v>
@@ -7536,7 +7609,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>0</v>
@@ -7560,7 +7633,7 @@
         <v>413</v>
       </c>
       <c r="P152" s="4" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="R152" s="1" t="s">
         <v>26</v>
@@ -7571,7 +7644,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>0</v>
@@ -7586,10 +7659,10 @@
         <v>365</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P153" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="R153" s="1" t="s">
         <v>26</v>
@@ -7600,7 +7673,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>0</v>
@@ -7609,16 +7682,16 @@
         <v>3827</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="I154" s="3" t="s">
         <v>179</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="R154" s="1" t="s">
         <v>26</v>
@@ -7629,7 +7702,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>0</v>
@@ -7644,10 +7717,10 @@
         <v>77</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="P155" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="R155" s="1" t="s">
         <v>26</v>
@@ -7658,7 +7731,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>0</v>
@@ -7667,7 +7740,7 @@
         <v>4519</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>404</v>
@@ -7676,7 +7749,7 @@
         <v>159</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="R156" s="1" t="s">
         <v>26</v>
@@ -7687,7 +7760,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>0</v>
@@ -7708,7 +7781,7 @@
         <v>179</v>
       </c>
       <c r="P157" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="R157" s="1" t="s">
         <v>26</v>
@@ -7719,7 +7792,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>0</v>
@@ -7737,7 +7810,7 @@
         <v>57</v>
       </c>
       <c r="P158" s="4" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="R158" s="1" t="s">
         <v>26</v>
@@ -7748,7 +7821,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>0</v>
@@ -7766,10 +7839,10 @@
         <v>43</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="P159" s="4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="R159" s="1" t="s">
         <v>26</v>
@@ -7780,7 +7853,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>0</v>
@@ -7798,7 +7871,7 @@
         <v>128</v>
       </c>
       <c r="P160" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="R160" s="1" t="s">
         <v>26</v>
@@ -7809,7 +7882,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>0</v>
@@ -7830,7 +7903,7 @@
         <v>32</v>
       </c>
       <c r="P161" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="R161" s="1" t="s">
         <v>26</v>
@@ -7841,7 +7914,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>0</v>
@@ -7859,10 +7932,10 @@
         <v>276</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="P162" s="4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="R162" s="1" t="s">
         <v>26</v>
@@ -7873,7 +7946,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>0</v>
@@ -7882,7 +7955,7 @@
         <v>5774</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>289</v>
@@ -7894,7 +7967,7 @@
         <v>101</v>
       </c>
       <c r="P163" s="4" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="R163" s="1" t="s">
         <v>26</v>
@@ -7905,7 +7978,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>0</v>
@@ -7917,13 +7990,13 @@
         <v>183</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="P164" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="R164" s="1" t="s">
         <v>26</v>
@@ -7932,9 +8005,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>0</v>
@@ -7943,16 +8016,19 @@
         <v>6569</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="I165" s="3" t="s">
         <v>428</v>
       </c>
+      <c r="M165" s="15" t="s">
+        <v>620</v>
+      </c>
       <c r="O165" s="3" t="s">
         <v>57</v>
       </c>
       <c r="P165" s="4" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="R165" s="1" t="s">
         <v>26</v>
@@ -7963,7 +8039,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>0</v>
@@ -7981,7 +8057,7 @@
         <v>250</v>
       </c>
       <c r="P166" s="4" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="R166" s="1" t="s">
         <v>26</v>
@@ -7992,7 +8068,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>0</v>
@@ -8001,7 +8077,7 @@
         <v>7170</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="H167" s="3" t="s">
         <v>116</v>
@@ -8010,7 +8086,7 @@
         <v>117</v>
       </c>
       <c r="P167" s="4" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="R167" s="1" t="s">
         <v>26</v>
@@ -8021,7 +8097,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>0</v>
@@ -8030,7 +8106,7 @@
         <v>7611</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>482</v>
@@ -8039,10 +8115,10 @@
         <v>436</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="P168" s="4" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="R168" s="1" t="s">
         <v>26</v>
@@ -8053,7 +8129,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>0</v>
@@ -8071,10 +8147,10 @@
         <v>436</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="P169" s="4" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="R169" s="1" t="s">
         <v>26</v>
@@ -8085,7 +8161,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>0</v>
@@ -8100,10 +8176,10 @@
         <v>236</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="P170" s="4" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="R170" s="1" t="s">
         <v>26</v>
@@ -8114,7 +8190,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>0</v>
@@ -8126,13 +8202,13 @@
         <v>171</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="I171" s="3" t="s">
         <v>246</v>
       </c>
       <c r="P171" s="4" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="R171" s="1" t="s">
         <v>26</v>
@@ -8143,7 +8219,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>0</v>
@@ -8155,13 +8231,13 @@
         <v>73</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="L172" s="3" t="s">
         <v>85</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="R172" s="1" t="s">
         <v>26</v>
@@ -8172,7 +8248,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>0</v>
@@ -8193,7 +8269,7 @@
         <v>32</v>
       </c>
       <c r="P173" s="4" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="R173" s="1" t="s">
         <v>26</v>
@@ -8204,7 +8280,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>0</v>
@@ -8213,7 +8289,7 @@
         <v>8654</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="I174" s="3" t="s">
         <v>303</v>
@@ -8222,7 +8298,7 @@
         <v>457</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="R174" s="1" t="s">
         <v>26</v>
@@ -8248,7 +8324,7 @@
         <v>457</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="R175" s="1" t="s">
         <v>26</v>
@@ -8259,7 +8335,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>0</v>
@@ -8271,13 +8347,13 @@
         <v>378</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="J176" s="3" t="s">
         <v>123</v>
       </c>
       <c r="P176" s="4" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="R176" s="1" t="s">
         <v>26</v>
@@ -8288,7 +8364,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>0</v>
@@ -8303,10 +8379,10 @@
         <v>236</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="P177" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="R177" s="1" t="s">
         <v>26</v>
@@ -8317,7 +8393,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>0</v>
@@ -8329,7 +8405,7 @@
         <v>105</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="I178" s="3" t="s">
         <v>117</v>
@@ -8338,7 +8414,7 @@
         <v>431</v>
       </c>
       <c r="P178" s="4" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="R178" s="1" t="s">
         <v>26</v>
@@ -8349,7 +8425,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>0</v>
@@ -8367,7 +8443,7 @@
         <v>78</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="R179" s="1" t="s">
         <v>26</v>
@@ -8378,7 +8454,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>0</v>
@@ -8390,7 +8466,7 @@
         <v>183</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="R180" s="1" t="s">
         <v>26</v>
@@ -8401,7 +8477,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>0</v>
@@ -8413,13 +8489,13 @@
         <v>226</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="O181" s="3" t="s">
         <v>334</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="R181" s="1" t="s">
         <v>26</v>
@@ -8428,41 +8504,51 @@
         <v>362</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B182" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" s="1" t="n">
+    <row r="182" s="8" customFormat="true" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B182" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5" t="n">
         <v>9427</v>
       </c>
-      <c r="F182" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="H182" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O182" s="3" t="s">
+      <c r="E182" s="5"/>
+      <c r="F182" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="H182" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="I182" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P182" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="R182" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T182" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="P182" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q182" s="5"/>
+      <c r="R182" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S182" s="5"/>
+      <c r="T182" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="U182" s="5"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>0</v>
@@ -8471,7 +8557,7 @@
         <v>9429</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>153</v>
@@ -8480,7 +8566,7 @@
         <v>84</v>
       </c>
       <c r="P183" s="4" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="R183" s="1" t="s">
         <v>26</v>
@@ -8491,7 +8577,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>0</v>
@@ -8500,16 +8586,16 @@
         <v>9583</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="J184" s="3" t="s">
         <v>57</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="P184" s="4" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="R184" s="1" t="s">
         <v>26</v>
@@ -8520,7 +8606,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>0</v>
@@ -8538,7 +8624,7 @@
         <v>365</v>
       </c>
       <c r="P185" s="4" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="R185" s="1" t="s">
         <v>26</v>
@@ -8549,7 +8635,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>0</v>
@@ -8561,13 +8647,13 @@
         <v>137</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="J186" s="3" t="s">
         <v>206</v>
       </c>
       <c r="P186" s="4" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="R186" s="1" t="s">
         <v>26</v>
@@ -8578,7 +8664,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>0</v>
@@ -8596,24 +8682,24 @@
         <v>96</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M187" s="3" t="s">
         <v>252</v>
       </c>
       <c r="P187" s="4" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="Q187" s="3" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="R187" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="s">
-        <v>675</v>
+      <c r="A188" s="6" t="s">
+        <v>678</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>0</v>
@@ -8634,10 +8720,10 @@
         <v>185</v>
       </c>
       <c r="P188" s="4" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="R188" s="1" t="s">
         <v>26</v>
@@ -8645,7 +8731,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>0</v>
@@ -8654,7 +8740,7 @@
         <v>13525</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>31</v>
@@ -8663,13 +8749,13 @@
         <v>412</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="P189" s="4" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q189" s="3" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="R189" s="1" t="s">
         <v>26</v>
@@ -8677,7 +8763,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>0</v>
@@ -8686,7 +8772,7 @@
         <v>13526</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>31</v>
@@ -8695,21 +8781,21 @@
         <v>259</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="P190" s="4" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="R190" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="3" t="s">
-        <v>684</v>
+      <c r="A191" s="6" t="s">
+        <v>687</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>0</v>
@@ -8724,16 +8810,16 @@
         <v>217</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L191" s="3" t="s">
         <v>185</v>
       </c>
       <c r="P191" s="4" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="R191" s="1" t="s">
         <v>26</v>
@@ -8741,7 +8827,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>0</v>
@@ -8750,21 +8836,21 @@
         <v>13573</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="P192" s="4" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="Q192" s="3" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="R192" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="3" t="s">
-        <v>690</v>
+      <c r="A193" s="6" t="s">
+        <v>693</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>0</v>
@@ -8785,10 +8871,10 @@
         <v>185</v>
       </c>
       <c r="P193" s="4" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="R193" s="1" t="s">
         <v>26</v>
@@ -8796,7 +8882,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>0</v>
@@ -8805,7 +8891,7 @@
         <v>13586</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>31</v>
@@ -8814,13 +8900,13 @@
         <v>91</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="P194" s="4" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="R194" s="1" t="s">
         <v>26</v>
@@ -8828,7 +8914,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>0</v>
@@ -8849,13 +8935,13 @@
         <v>111</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="P195" s="4" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="R195" s="1" t="s">
         <v>26</v>
@@ -8863,7 +8949,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>0</v>
@@ -8881,18 +8967,18 @@
         <v>137</v>
       </c>
       <c r="P196" s="4" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="Q196" s="3" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="R196" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="3" t="s">
-        <v>703</v>
+      <c r="A197" s="6" t="s">
+        <v>706</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>0</v>
@@ -8913,10 +8999,10 @@
         <v>185</v>
       </c>
       <c r="P197" s="4" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="Q197" s="3" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="R197" s="1" t="s">
         <v>26</v>
@@ -8924,7 +9010,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>0</v>
@@ -8933,7 +9019,7 @@
         <v>13608</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>236</v>
@@ -8948,10 +9034,10 @@
         <v>95</v>
       </c>
       <c r="P198" s="4" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="Q198" s="3" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="R198" s="1" t="s">
         <v>26</v>
@@ -8959,7 +9045,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>0</v>
@@ -8980,7 +9066,7 @@
         <v>64</v>
       </c>
       <c r="P199" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="R199" s="1" t="s">
         <v>26</v>
@@ -8988,7 +9074,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>0</v>
@@ -8997,7 +9083,7 @@
         <v>13641</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>31</v>
@@ -9006,13 +9092,13 @@
         <v>179</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="P200" s="4" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="Q200" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="R200" s="1" t="s">
         <v>26</v>
@@ -9020,7 +9106,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>0</v>
@@ -9032,16 +9118,16 @@
         <v>105</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="J201" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P201" s="4" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="R201" s="1" t="s">
         <v>26</v>
@@ -9049,7 +9135,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>0</v>
@@ -9070,10 +9156,10 @@
         <v>84</v>
       </c>
       <c r="P202" s="4" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="R202" s="1" t="s">
         <v>26</v>
@@ -9081,7 +9167,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>0</v>
@@ -9102,15 +9188,15 @@
         <v>179</v>
       </c>
       <c r="P203" s="4" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="R203" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="3" t="s">
-        <v>723</v>
+      <c r="A204" s="6" t="s">
+        <v>726</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>0</v>
@@ -9125,16 +9211,16 @@
         <v>217</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>185</v>
       </c>
       <c r="P204" s="4" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="Q204" s="3" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="R204" s="1" t="s">
         <v>26</v>
@@ -9142,7 +9228,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>0</v>
@@ -9151,16 +9237,16 @@
         <v>13740</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="J205" s="3" t="s">
         <v>78</v>
       </c>
       <c r="P205" s="4" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="R205" s="1" t="s">
         <v>26</v>
@@ -9168,7 +9254,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>0</v>
@@ -9189,10 +9275,10 @@
         <v>179</v>
       </c>
       <c r="P206" s="4" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="R206" s="1" t="s">
         <v>26</v>
@@ -9200,7 +9286,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>0</v>
@@ -9221,10 +9307,10 @@
         <v>128</v>
       </c>
       <c r="P207" s="4" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="Q207" s="3" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="R207" s="1" t="s">
         <v>26</v>
@@ -9232,7 +9318,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>0</v>
@@ -9241,7 +9327,7 @@
         <v>13800</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>100</v>
@@ -9252,19 +9338,22 @@
       <c r="L208" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="M208" s="16" t="s">
+        <v>742</v>
+      </c>
       <c r="P208" s="4" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="R208" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="3" t="s">
-        <v>741</v>
+      <c r="A209" s="6" t="s">
+        <v>745</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>0</v>
@@ -9276,7 +9365,7 @@
         <v>185</v>
       </c>
       <c r="P209" s="4" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="R209" s="1" t="s">
         <v>26</v>
@@ -9287,7 +9376,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>0</v>
@@ -9296,27 +9385,27 @@
         <v>13814</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="P210" s="4" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="R210" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="3" t="s">
-        <v>747</v>
+      <c r="A211" s="6" t="s">
+        <v>751</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>0</v>
@@ -9331,16 +9420,16 @@
         <v>217</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="L211" s="3" t="s">
         <v>185</v>
       </c>
       <c r="P211" s="4" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="Q211" s="3" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="R211" s="1" t="s">
         <v>26</v>
@@ -9348,7 +9437,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>0</v>
@@ -9360,7 +9449,7 @@
         <v>96</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="J212" s="3" t="s">
         <v>96</v>
@@ -9369,7 +9458,7 @@
         <v>96</v>
       </c>
       <c r="P212" s="4" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="R212" s="1" t="s">
         <v>26</v>
@@ -9377,7 +9466,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>0</v>
@@ -9386,16 +9475,16 @@
         <v>13835</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="I213" s="3" t="s">
         <v>95</v>
       </c>
       <c r="O213" s="3" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="P213" s="4" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="R213" s="1" t="s">
         <v>26</v>
@@ -9403,7 +9492,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>0</v>
@@ -9412,7 +9501,7 @@
         <v>10048</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="I214" s="3" t="s">
         <v>231</v>
@@ -9421,7 +9510,7 @@
         <v>457</v>
       </c>
       <c r="P214" s="4" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="R214" s="1" t="s">
         <v>26</v>
@@ -9429,7 +9518,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>0</v>
@@ -9450,7 +9539,7 @@
         <v>43</v>
       </c>
       <c r="P215" s="4" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="R215" s="1" t="s">
         <v>26</v>
@@ -9458,7 +9547,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>0</v>
@@ -9476,10 +9565,10 @@
         <v>91</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="P216" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="R216" s="1" t="s">
         <v>26</v>
@@ -9487,7 +9576,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>0</v>
@@ -9496,7 +9585,7 @@
         <v>13909</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="H217" s="3" t="s">
         <v>72</v>
@@ -9505,7 +9594,7 @@
         <v>73</v>
       </c>
       <c r="P217" s="4" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="R217" s="1" t="s">
         <v>26</v>
@@ -9513,7 +9602,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>0</v>
@@ -9522,16 +9611,16 @@
         <v>12489</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="H218" s="3" t="s">
         <v>90</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="P218" s="4" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="R218" s="1" t="s">
         <v>26</v>
@@ -9539,7 +9628,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>0</v>
@@ -9551,13 +9640,13 @@
         <v>401</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>439</v>
       </c>
       <c r="P219" s="4" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="R219" s="1" t="s">
         <v>26</v>
@@ -9565,7 +9654,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>0</v>
@@ -9574,7 +9663,7 @@
         <v>6389</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H220" s="3" t="s">
         <v>226</v>
@@ -9583,7 +9672,7 @@
         <v>152</v>
       </c>
       <c r="P220" s="4" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="R220" s="1" t="s">
         <v>26</v>
@@ -9591,7 +9680,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>0</v>
@@ -9603,13 +9692,13 @@
         <v>171</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>189</v>
       </c>
       <c r="P221" s="4" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="R221" s="1" t="s">
         <v>26</v>
@@ -9626,7 +9715,7 @@
         <v>4990</v>
       </c>
       <c r="P222" s="4" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="R222" s="1" t="s">
         <v>26</v>
